--- a/DokkanKits/161.xlsx
+++ b/DokkanKits/161.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30820384-4FF8-4B3F-9C01-C21839FD328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCAA2E2-7571-47C6-9B77-0243EA8C3C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3893" yWindow="803" windowWidth="11362" windowHeight="14152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>Attribute\Turn</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Super</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -176,15 +173,9 @@
     <t>Link 1</t>
   </si>
   <si>
-    <t>Golden Warrior</t>
-  </si>
-  <si>
     <t>Link 2</t>
   </si>
   <si>
-    <t>Saiyan Warrior Race</t>
-  </si>
-  <si>
     <t>Link 3</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
     <t>Link 5</t>
   </si>
   <si>
-    <t>Prepared for Battle</t>
-  </si>
-  <si>
     <t>Link 6</t>
   </si>
   <si>
@@ -293,18 +281,6 @@
     <t>Dmg Red Normal</t>
   </si>
   <si>
-    <t>Goku</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>Immense</t>
-  </si>
-  <si>
     <t>Active Skill Turn</t>
   </si>
   <si>
@@ -321,6 +297,66 @@
   </si>
   <si>
     <t>Mega-Colossal</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Goku Black (Super Saiyan Rose)</t>
+  </si>
+  <si>
+    <t>Extreme</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Colossal</t>
+  </si>
+  <si>
+    <t>Fear and Faith</t>
+  </si>
+  <si>
+    <t>Dismal Future</t>
+  </si>
+  <si>
+    <t>Big Bad Bosses</t>
+  </si>
+  <si>
+    <t>Destructive</t>
+  </si>
+  <si>
+    <t>[0.597]</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[0.7062761191890528]</t>
+  </si>
+  <si>
+    <t>[0.7814889686267087]</t>
+  </si>
+  <si>
+    <t>[0.8327171587380683]</t>
+  </si>
+  <si>
+    <t>[0.8678854186968505]</t>
+  </si>
+  <si>
+    <t>[0.8924225734292978]</t>
+  </si>
+  <si>
+    <t>[0.9098759275839388]</t>
+  </si>
+  <si>
+    <t>[0.9225376043455805]</t>
+  </si>
+  <si>
+    <t>[0.9318965700916503]</t>
+  </si>
+  <si>
+    <t>[0.9389333731852147]</t>
   </si>
 </sst>
 </file>
@@ -884,6 +920,16 @@
         <row r="7">
           <cell r="B7">
             <v>1</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="D67">
+            <v>0.38772799999999996</v>
           </cell>
         </row>
       </sheetData>
@@ -1181,7 +1227,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1191,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1238,13 +1284,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -1252,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -1260,7 +1306,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -1268,82 +1314,84 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>44927</v>
+        <v>45200</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>44927</v>
+        <v>45200</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>15000</v>
+        <v>16635</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>9000</v>
+        <v>6681</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <f>0.125</f>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <f>0.5</f>
+        <v>0.5</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1351,7 +1399,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>1.5</v>
@@ -1359,35 +1407,35 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="M15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="M16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1395,7 +1443,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1403,15 +1451,15 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1419,7 +1467,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1427,43 +1475,46 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <f>1.6</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <f>1.6</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <f>1.6</f>
+        <v>1.6</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1471,7 +1522,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1482,13 +1533,14 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <f>1.6</f>
+        <v>1.6</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -1496,7 +1548,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1510,7 +1562,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1524,7 +1576,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1533,12 +1585,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <f>0.5</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1549,18 +1602,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <f>0.5</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1571,21 +1625,23 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <f>0.5</f>
+        <v>0.5</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1596,18 +1652,19 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <f>0.5</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1618,26 +1675,29 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B38">
         <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1645,127 +1705,180 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B42">
         <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>49</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <f>3+[1]Sheet1!$B$39*6</f>
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <f>3+6*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39))</f>
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="F52">
+        <f>3+6*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2)</f>
+        <v>5.5277777777777786</v>
+      </c>
+      <c r="G52">
+        <f>3+6*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2+(1-[1]Sheet1!$B$39)^3)</f>
+        <v>6.1064814814814818</v>
+      </c>
+      <c r="H52">
+        <f>3+6*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2+(1-[1]Sheet1!$B$39)^3+(1-[1]Sheet1!$B$39)^4)</f>
+        <v>6.588734567901235</v>
+      </c>
+      <c r="I52">
+        <f>3+6*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2+(1-[1]Sheet1!$B$39)^3+(1-[1]Sheet1!$B$39)^4+(1-[1]Sheet1!$B$39)^5)</f>
+        <v>6.9906121399176957</v>
+      </c>
+      <c r="J52">
+        <f>3+6*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2+(1-[1]Sheet1!$B$39)^3+(1-[1]Sheet1!$B$39)^4+(1-[1]Sheet1!$B$39)^5+(1-[1]Sheet1!$B$39)^6)</f>
+        <v>7.32551011659808</v>
+      </c>
+      <c r="K52">
+        <f>3+6*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2+(1-[1]Sheet1!$B$39)^3+(1-[1]Sheet1!$B$39)^4+(1-[1]Sheet1!$B$39)^5+(1-[1]Sheet1!$B$39)^6+(1-[1]Sheet1!$B$39)^7)</f>
+        <v>7.604591763831734</v>
+      </c>
+      <c r="L52">
+        <f>3+6*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2+(1-[1]Sheet1!$B$39)^3+(1-[1]Sheet1!$B$39)^4+(1-[1]Sheet1!$B$39)^5+(1-[1]Sheet1!$B$39)^6+(1-[1]Sheet1!$B$39)^7+(1-[1]Sheet1!$B$39)^8)</f>
+        <v>7.8371598031931118</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <f>6</f>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1775,13 +1888,13 @@
         <v>6.25</v>
       </c>
       <c r="M53">
-        <f>C53</f>
-        <v>6.25</v>
+        <f>[1]Sheet1!$B$6*3.2+[1]Sheet1!$B$7*3</f>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1792,13 +1905,14 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <f>0.06*(1-[1]Sheet1!$D$67)+0.06</f>
+        <v>9.6736320000000001E-2</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -1809,7 +1923,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1826,7 +1940,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1840,7 +1954,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1851,7 +1965,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1862,7 +1976,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1876,7 +1990,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1887,7 +2001,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1898,7 +2012,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1912,41 +2026,104 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>96</v>
+      </c>
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" t="s">
+        <v>101</v>
+      </c>
+      <c r="H64" t="s">
+        <v>102</v>
+      </c>
+      <c r="I64" t="s">
+        <v>103</v>
+      </c>
+      <c r="J64" t="s">
+        <v>104</v>
+      </c>
+      <c r="K64" t="s">
+        <v>105</v>
+      </c>
+      <c r="L64" t="s">
+        <v>106</v>
       </c>
       <c r="M64" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="M65" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C66">
         <v>0</v>
+      </c>
+      <c r="D66">
+        <f>[1]Sheet1!$B$39*0.5</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E66">
+        <f>0.5*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39))</f>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="F66">
+        <f>0.5*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2)</f>
+        <v>0.21064814814814817</v>
+      </c>
+      <c r="G66">
+        <f>0.5*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2+(1-[1]Sheet1!$B$39)^3)</f>
+        <v>0.25887345679012347</v>
+      </c>
+      <c r="H66">
+        <f>0.5*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2+(1-[1]Sheet1!$B$39)^3+(1-[1]Sheet1!$B$39)^4)</f>
+        <v>0.29906121399176955</v>
+      </c>
+      <c r="I66">
+        <f>0.5*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2+(1-[1]Sheet1!$B$39)^3+(1-[1]Sheet1!$B$39)^4+(1-[1]Sheet1!$B$39)^5)</f>
+        <v>0.33255101165980799</v>
+      </c>
+      <c r="J66">
+        <f>0.5*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2+(1-[1]Sheet1!$B$39)^3+(1-[1]Sheet1!$B$39)^4+(1-[1]Sheet1!$B$39)^5+(1-[1]Sheet1!$B$39)^6)</f>
+        <v>0.36045917638317332</v>
+      </c>
+      <c r="K66">
+        <f>0.5*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2+(1-[1]Sheet1!$B$39)^3+(1-[1]Sheet1!$B$39)^4+(1-[1]Sheet1!$B$39)^5+(1-[1]Sheet1!$B$39)^6+(1-[1]Sheet1!$B$39)^7)</f>
+        <v>0.38371598031931115</v>
+      </c>
+      <c r="L66">
+        <f>0.5*[1]Sheet1!$B$39*(1+(1-[1]Sheet1!$B$39)+(1-[1]Sheet1!$B$39)^2+(1-[1]Sheet1!$B$39)^3+(1-[1]Sheet1!$B$39)^4+(1-[1]Sheet1!$B$39)^5+(1-[1]Sheet1!$B$39)^6+(1-[1]Sheet1!$B$39)^7+(1-[1]Sheet1!$B$39)^8)</f>
+        <v>0.40309665026609265</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -1954,7 +2131,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1963,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
